--- a/X04/X04_VENDITA.xlsx
+++ b/X04/X04_VENDITA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZY\ODCEC_22-23\D24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCACFB82-0F00-486B-8D37-7D78EA3D7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ED8E27-EF4E-475F-A3AF-A4A62139A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VENDITA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="244">
   <si>
     <t>DATA</t>
   </si>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -13986,7 +13986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6310E67F-88FE-476B-A8B5-7560ECF6D87C}">
   <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -14015,8 +14015,8 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
+      <c r="C2" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14026,8 +14026,8 @@
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
+      <c r="C3" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14037,8 +14037,8 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
+      <c r="C4" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14048,8 +14048,8 @@
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14059,8 +14059,8 @@
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14070,8 +14070,8 @@
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
+      <c r="C7" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14081,8 +14081,8 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
+      <c r="C8" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14092,8 +14092,8 @@
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
+      <c r="C9" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -14103,8 +14103,8 @@
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
+      <c r="C10" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -14114,8 +14114,8 @@
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5">
-        <v>2</v>
+      <c r="C11" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -14125,8 +14125,8 @@
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5">
-        <v>2</v>
+      <c r="C12" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -14136,8 +14136,8 @@
       <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5">
-        <v>2</v>
+      <c r="C13" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -14147,8 +14147,8 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5">
-        <v>3</v>
+      <c r="C14" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -14158,8 +14158,8 @@
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5">
-        <v>3</v>
+      <c r="C15" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -14169,8 +14169,8 @@
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5">
-        <v>3</v>
+      <c r="C16" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -14180,8 +14180,8 @@
       <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5">
-        <v>3</v>
+      <c r="C17" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -14191,8 +14191,8 @@
       <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5">
-        <v>3</v>
+      <c r="C18" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14202,8 +14202,8 @@
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5">
-        <v>4</v>
+      <c r="C19" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -14213,8 +14213,8 @@
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="5">
-        <v>4</v>
+      <c r="C20" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -14224,8 +14224,8 @@
       <c r="B21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="5">
-        <v>4</v>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -14235,8 +14235,8 @@
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="5">
-        <v>4</v>
+      <c r="C22" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -14246,8 +14246,8 @@
       <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5">
-        <v>4</v>
+      <c r="C23" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -14257,8 +14257,8 @@
       <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="5">
-        <v>5</v>
+      <c r="C24" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -14268,8 +14268,8 @@
       <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="5">
-        <v>5</v>
+      <c r="C25" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -14279,8 +14279,8 @@
       <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5">
-        <v>5</v>
+      <c r="C26" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14290,8 +14290,8 @@
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="5">
-        <v>5</v>
+      <c r="C27" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -14301,8 +14301,8 @@
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="5">
-        <v>5</v>
+      <c r="C28" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -14312,8 +14312,8 @@
       <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="5">
-        <v>5</v>
+      <c r="C29" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14323,8 +14323,8 @@
       <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="5">
-        <v>5</v>
+      <c r="C30" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -14334,8 +14334,8 @@
       <c r="B31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5">
-        <v>5</v>
+      <c r="C31" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -14345,8 +14345,8 @@
       <c r="B32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="5">
-        <v>5</v>
+      <c r="C32" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -14356,8 +14356,8 @@
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5">
-        <v>6</v>
+      <c r="C33" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -14367,8 +14367,8 @@
       <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5">
-        <v>6</v>
+      <c r="C34" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -14378,8 +14378,8 @@
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5">
-        <v>6</v>
+      <c r="C35" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -14389,8 +14389,8 @@
       <c r="B36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="5">
-        <v>6</v>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -14400,8 +14400,8 @@
       <c r="B37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="5">
-        <v>7</v>
+      <c r="C37" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -14411,8 +14411,8 @@
       <c r="B38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="5">
-        <v>7</v>
+      <c r="C38" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -14422,8 +14422,8 @@
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="5">
-        <v>7</v>
+      <c r="C39" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -14433,8 +14433,8 @@
       <c r="B40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="5">
-        <v>7</v>
+      <c r="C40" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -14444,8 +14444,8 @@
       <c r="B41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="5">
-        <v>7</v>
+      <c r="C41" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -14455,8 +14455,8 @@
       <c r="B42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="5">
-        <v>8</v>
+      <c r="C42" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -14466,8 +14466,8 @@
       <c r="B43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="5">
-        <v>8</v>
+      <c r="C43" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -14477,8 +14477,8 @@
       <c r="B44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="5">
-        <v>8</v>
+      <c r="C44" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -14488,8 +14488,8 @@
       <c r="B45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="5">
-        <v>8</v>
+      <c r="C45" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -14499,8 +14499,8 @@
       <c r="B46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="5">
-        <v>8</v>
+      <c r="C46" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -14510,8 +14510,8 @@
       <c r="B47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="5">
-        <v>8</v>
+      <c r="C47" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -14521,8 +14521,8 @@
       <c r="B48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="5">
-        <v>8</v>
+      <c r="C48" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -14532,8 +14532,8 @@
       <c r="B49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="5">
-        <v>8</v>
+      <c r="C49" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -14543,8 +14543,8 @@
       <c r="B50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="5">
-        <v>9</v>
+      <c r="C50" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -14554,8 +14554,8 @@
       <c r="B51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="5">
-        <v>9</v>
+      <c r="C51" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -14565,8 +14565,8 @@
       <c r="B52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="5">
-        <v>9</v>
+      <c r="C52" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -14576,8 +14576,8 @@
       <c r="B53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="5">
-        <v>9</v>
+      <c r="C53" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -14587,8 +14587,8 @@
       <c r="B54" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="5">
-        <v>9</v>
+      <c r="C54" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -14598,8 +14598,8 @@
       <c r="B55" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="5">
-        <v>9</v>
+      <c r="C55" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,8 +14609,8 @@
       <c r="B56" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="5">
-        <v>10</v>
+      <c r="C56" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -14620,8 +14620,8 @@
       <c r="B57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="5">
-        <v>10</v>
+      <c r="C57" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -14631,8 +14631,8 @@
       <c r="B58" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="5">
-        <v>10</v>
+      <c r="C58" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -14642,8 +14642,8 @@
       <c r="B59" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="5">
-        <v>10</v>
+      <c r="C59" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -14653,8 +14653,8 @@
       <c r="B60" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="5">
-        <v>10</v>
+      <c r="C60" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -14664,8 +14664,8 @@
       <c r="B61" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="5">
-        <v>10</v>
+      <c r="C61" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -14675,8 +14675,8 @@
       <c r="B62" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="5">
-        <v>10</v>
+      <c r="C62" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -14686,8 +14686,8 @@
       <c r="B63" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="5">
-        <v>10</v>
+      <c r="C63" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -14697,8 +14697,8 @@
       <c r="B64" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="5">
-        <v>10</v>
+      <c r="C64" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -14708,8 +14708,8 @@
       <c r="B65" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="5">
-        <v>10</v>
+      <c r="C65" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -14719,8 +14719,8 @@
       <c r="B66" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="5">
-        <v>10</v>
+      <c r="C66" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -14730,8 +14730,8 @@
       <c r="B67" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="5">
-        <v>10</v>
+      <c r="C67" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -14741,8 +14741,8 @@
       <c r="B68" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="5">
-        <v>10</v>
+      <c r="C68" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -14752,8 +14752,8 @@
       <c r="B69" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="5">
-        <v>11</v>
+      <c r="C69" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -14763,8 +14763,8 @@
       <c r="B70" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="5">
-        <v>11</v>
+      <c r="C70" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -14774,8 +14774,8 @@
       <c r="B71" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="5">
-        <v>11</v>
+      <c r="C71" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -14785,8 +14785,8 @@
       <c r="B72" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="5">
-        <v>11</v>
+      <c r="C72" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -14796,8 +14796,8 @@
       <c r="B73" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C73" s="5">
-        <v>11</v>
+      <c r="C73" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -14807,8 +14807,8 @@
       <c r="B74" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="5">
-        <v>11</v>
+      <c r="C74" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -14818,8 +14818,8 @@
       <c r="B75" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="5">
-        <v>11</v>
+      <c r="C75" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -14829,8 +14829,8 @@
       <c r="B76" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="5">
-        <v>12</v>
+      <c r="C76" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -14840,8 +14840,8 @@
       <c r="B77" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="5">
-        <v>12</v>
+      <c r="C77" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -14851,8 +14851,8 @@
       <c r="B78" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="5">
-        <v>12</v>
+      <c r="C78" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
